--- a/Coronavirus/Assets/Resources/Localization/Provinces.xlsx
+++ b/Coronavirus/Assets/Resources/Localization/Provinces.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21857\Documents\GitHub\Coronavirus\Coronavirus\Assets\Resources\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB69692E-F3E9-4338-A06E-E89AB3DF6506}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA86BA2D-1C55-4E5D-8415-098550495D5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7F3F1938-9141-4E45-8059-2BE1E8BCF4B0}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>BeiJing</t>
   </si>
@@ -283,6 +283,14 @@
   </si>
   <si>
     <t>全国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NumInfected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感染人数：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -647,7 +655,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF56FCCC-EEF8-4C11-B83E-8EF3E43A1C59}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -658,281 +666,289 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>67</v>
       </c>
     </row>

--- a/Coronavirus/Assets/Resources/Localization/Provinces.xlsx
+++ b/Coronavirus/Assets/Resources/Localization/Provinces.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21857\Documents\GitHub\Coronavirus\Coronavirus\Assets\Resources\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA86BA2D-1C55-4E5D-8415-098550495D5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F82FC85-6F49-4579-8934-609EBBAC477C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7F3F1938-9141-4E45-8059-2BE1E8BCF4B0}"/>
+    <workbookView xWindow="9252" yWindow="1800" windowWidth="11004" windowHeight="8964" xr2:uid="{7F3F1938-9141-4E45-8059-2BE1E8BCF4B0}"/>
   </bookViews>
   <sheets>
     <sheet name="SimpleChinese" sheetId="1" r:id="rId1"/>
@@ -31,266 +31,299 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+  <si>
+    <t>TianJing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeBei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LiaoNing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JiLin</t>
+  </si>
+  <si>
+    <t>HeiLongJiang</t>
+  </si>
+  <si>
+    <t>Inner_Mongolia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShanXi</t>
+  </si>
+  <si>
+    <t>ShaanXi</t>
+  </si>
+  <si>
+    <t>ShanDong</t>
+  </si>
+  <si>
+    <t>HeNan</t>
+  </si>
+  <si>
+    <t>JiangSu</t>
+  </si>
+  <si>
+    <t>ShangHai</t>
+  </si>
+  <si>
+    <t>AnHui</t>
+  </si>
+  <si>
+    <t>ZheJiang</t>
+  </si>
+  <si>
+    <t>FuJian</t>
+  </si>
+  <si>
+    <t>GuangDong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JiangXi</t>
+  </si>
+  <si>
+    <t>HuBei</t>
+  </si>
+  <si>
+    <t>HuNan</t>
+  </si>
+  <si>
+    <t>GuangXi</t>
+  </si>
+  <si>
+    <t>TaiWan</t>
+  </si>
+  <si>
+    <t>HongKong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Macao</t>
+  </si>
+  <si>
+    <t>HaiNan</t>
+  </si>
+  <si>
+    <t>GuiZhou</t>
+  </si>
+  <si>
+    <t>YunNan</t>
+  </si>
+  <si>
+    <t>ChongQing</t>
+  </si>
+  <si>
+    <t>SiChuan</t>
+  </si>
+  <si>
+    <t>GanSu</t>
+  </si>
+  <si>
+    <t>NingXia</t>
+  </si>
+  <si>
+    <t>QingHai</t>
+  </si>
+  <si>
+    <t>Tibet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XinJiang</t>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辽宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑龙江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内蒙古</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陕西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安徽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台湾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>澳门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘肃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁夏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新疆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NumInfected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感染人数：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>BeiJing</t>
-  </si>
-  <si>
-    <t>TianJing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HeBei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LiaoNing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JiLin</t>
-  </si>
-  <si>
-    <t>HeiLongJiang</t>
-  </si>
-  <si>
-    <t>Inner_Mongolia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShanXi</t>
-  </si>
-  <si>
-    <t>ShaanXi</t>
-  </si>
-  <si>
-    <t>ShanDong</t>
-  </si>
-  <si>
-    <t>HeNan</t>
-  </si>
-  <si>
-    <t>JiangSu</t>
-  </si>
-  <si>
-    <t>ShangHai</t>
-  </si>
-  <si>
-    <t>AnHui</t>
-  </si>
-  <si>
-    <t>ZheJiang</t>
-  </si>
-  <si>
-    <t>FuJian</t>
-  </si>
-  <si>
-    <t>GuangDong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JiangXi</t>
-  </si>
-  <si>
-    <t>HuBei</t>
-  </si>
-  <si>
-    <t>HuNan</t>
-  </si>
-  <si>
-    <t>GuangXi</t>
-  </si>
-  <si>
-    <t>TaiWan</t>
-  </si>
-  <si>
-    <t>HongKong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Macao</t>
-  </si>
-  <si>
-    <t>HaiNan</t>
-  </si>
-  <si>
-    <t>GuiZhou</t>
-  </si>
-  <si>
-    <t>YunNan</t>
-  </si>
-  <si>
-    <t>ChongQing</t>
-  </si>
-  <si>
-    <t>SiChuan</t>
-  </si>
-  <si>
-    <t>GanSu</t>
-  </si>
-  <si>
-    <t>NingXia</t>
-  </si>
-  <si>
-    <t>QingHai</t>
-  </si>
-  <si>
-    <t>Tibet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XinJiang</t>
-  </si>
-  <si>
-    <t>北京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天津</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>河北</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辽宁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吉林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑龙江</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内蒙古</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山西</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陕西</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>河南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江苏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安徽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙江</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江西</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湖北</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湖南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广西</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台湾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香港</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>澳门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贵州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重庆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四川</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甘肃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宁夏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西藏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新疆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NumInfected</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>感染人数：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NumDead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NumCure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NumHeavy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NumSuspected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡人数：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治愈人数：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重病人数：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑似人数：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -655,7 +688,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF56FCCC-EEF8-4C11-B83E-8EF3E43A1C59}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,290 +699,322 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
         <v>70</v>
-      </c>
-      <c r="B1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus/Assets/Resources/Localization/Provinces.xlsx
+++ b/Coronavirus/Assets/Resources/Localization/Provinces.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21857\Documents\GitHub\Coronavirus\Coronavirus\Assets\Resources\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F82FC85-6F49-4579-8934-609EBBAC477C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A0C3FE-036B-4442-A6B3-EB0FDFEA87E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9252" yWindow="1800" windowWidth="11004" windowHeight="8964" xr2:uid="{7F3F1938-9141-4E45-8059-2BE1E8BCF4B0}"/>
+    <workbookView xWindow="11592" yWindow="1920" windowWidth="11004" windowHeight="8964" xr2:uid="{7F3F1938-9141-4E45-8059-2BE1E8BCF4B0}"/>
   </bookViews>
   <sheets>
     <sheet name="SimpleChinese" sheetId="1" r:id="rId1"/>
@@ -287,10 +287,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>感染人数：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BeiJing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -311,19 +307,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>死亡人数：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治愈人数：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重病人数：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疑似人数：</t>
+    <t>疑似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治愈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感染</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -690,7 +690,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF56FCCC-EEF8-4C11-B83E-8EF3E43A1C59}">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -702,20 +704,20 @@
         <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
@@ -723,18 +725,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
         <v>75</v>
-      </c>
-      <c r="B5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -747,7 +749,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
